--- a/paper/Submissions/PlantCell/TPC accepted sub/Supplemental Figures and Tables/SDS 2. Gene and Function Annotation from T4 GWA Results.xlsx
+++ b/paper/Submissions/PlantCell/TPC accepted sub/Supplemental Figures and Tables/SDS 2. Gene and Function Annotation from T4 GWA Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC revision\Final\Supplemental Figures and Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcSolGWAS\paper\Submissions\PlantCell\TPC accepted sub\Supplemental Figures and Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A5059B-3166-4574-9548-67448E3A6E86}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CEF4D9-8E95-4681-998F-ED816C2C47F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="8560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="8556" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="7" r:id="rId1"/>
@@ -1632,16 +1632,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE459E-319B-4EF7-9A5B-371491DD81CC}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>244</v>
       </c>
@@ -1666,21 +1666,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="66.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="66.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>202</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>204</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>206</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>208</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>114</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>211</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>101</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>118</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>213</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>215</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>217</v>
       </c>
@@ -2899,7 +2900,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>219</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>221</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>223</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>225</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>226</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>228</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>231</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>233</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>141</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>235</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>237</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>142</v>
       </c>
@@ -4171,7 +4172,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>151</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
@@ -4542,7 +4543,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>84</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>158</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>161</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>239</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>163</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>165</v>
       </c>
@@ -4976,20 +4977,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="46.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -5032,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -5049,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5109,7 +5111,7 @@
         <v>2.4795531999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -5143,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -5183,7 +5185,7 @@
         <v>3.3391279999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>1.9881985000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5223,7 +5225,7 @@
         <v>1.4945753000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -5243,7 +5245,7 @@
         <v>1.1642283E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -5280,7 +5282,7 @@
         <v>1.8239099000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>3.3391279999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>3.3391279999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -5388,7 +5390,7 @@
         <v>6.6680330000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -5426,7 +5428,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
     <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
